--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1200</v>
+        <v>70000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>70000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Solar Collipulli</t>
+          <t>Parque Eólico Los Alpes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GAIA SOLAR SPA</t>
+          <t>Empresa Eléctrica Alpes SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147563992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156298214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico San Andrés</t>
+          <t>Planta Solar Collipulli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parque Eólico San Andrés SpA.</t>
+          <t>GAIA SOLAR SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147474806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147563992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico San Andrés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico San Andrés SpA.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25000</v>
+        <v>135000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147474806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Hydromaq Mininco</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HYDROMAQ SERVICE SPA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3500</v>
+        <v>25000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145191954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación Parque Eolico Los Trigales</t>
+          <t>Extracción y Procesamiento de Áridos Hydromaq Mininco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Eólico los Trigales SPA</t>
+          <t>HYDROMAQ SERVICE SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/10/2018</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141641148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145191954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Río Malleco 220 kV</t>
+          <t>Modificación Parque Eolico Los Trigales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Parque Eólico los Trigales SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8200</v>
+        <v>4000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141612062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141641148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Parque Eólico Los Trigales</t>
+          <t>Subestación Eléctrica Río Malleco 220 kV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MARIA JOSE SALINERO ECHEVERRIA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4000</v>
+        <v>8200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/10/2018</t>
+          <t>23/10/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141634133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141612062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión 1x220 S/E Agua Buena- S/E El Salto</t>
+          <t>Modificación Proyecto Parque Eólico Los Trigales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>wpd Malleco Transmisión SpA</t>
+          <t>MARIA JOSE SALINERO ECHEVERRIA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13800</v>
+        <v>4000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/10/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139161779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141634133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aumento de Tensión Línea Subterránea y Obras Complementarias - Parque Eólico Malleco</t>
+          <t>Línea de Alta Tensión 1x220 S/E Agua Buena- S/E El Salto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>wpd Malleco SPA</t>
+          <t>wpd Malleco Transmisión SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>500000</v>
+        <v>13800</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139197996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139161779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Aumento de Tensión Línea Subterránea y Obras Complementarias - Parque Eólico Malleco</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>wpd Malleco SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9903</v>
+        <v>500000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139197996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CMPC Celulosa S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>9903</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>CMPC Celulosa S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,40 +1000,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos Malleco Norte</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Consorcio Cosemar y William Ives S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05/01/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131983809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,30 +1048,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Centro de Manejo de Residuos Sólidos Malleco Norte</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Consorcio Cosemar y William Ives S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>05/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131983809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZE230 - Niblinto</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/08/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130661970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Eólico La Cabaña</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZE230 - Niblinto</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>240000</v>
+        <v>45</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>06/08/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130661970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>La Cabaña SpA.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/03/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Proyecto Eólico La Cabaña</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>La Cabaña SpA.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>240000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/03/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Tolpán - Pacífico</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tolpán Transmisión SpA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129729694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Eólico Piñón Blanco</t>
+          <t>Línea de Transmisión Tolpán - Pacífico</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Parque Eólico Piñón Blanco SpA</t>
+          <t>Tolpán Transmisión SpA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>300000</v>
+        <v>17000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129646833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129729694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Tolpán - Tapoff Pacífico</t>
+          <t>Parque Eólico Piñón Blanco</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tolpán Transmisión SpA.</t>
+          <t>Parque Eólico Piñón Blanco SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9000</v>
+        <v>300000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129655819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129646833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión Tolpán - Tapoff Pacífico</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Tolpán Transmisión SpA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129655819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,26 +1912,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Parque Eólico Malleco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>wpd Malleco SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>500000</v>
+        <v>1200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,26 +1960,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Parque Eólico Malleco</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>wpd Malleco SPA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>500000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2475</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1650</v>
+        <v>319</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,21 +2891,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Optimización y Ampliación Planta de Contrachapados</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/06/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5691618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Ampliación Planta de Contrachapados</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>95000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>08/06/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5691618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Abandono Ex Vertedero de Collipulli</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Collipulli</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>782</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/12/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5153121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Plan de Cierre y Abandono Ex Vertedero de Collipulli</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Collipulli</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>300</v>
+        <v>782</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>22/12/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5153121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Parque Eólico Collipulli</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ener-Renova S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>108000</v>
+        <v>300</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>17/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Parque Eólico Collipulli</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ener-Renova S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>108000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>17/06/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Extension Via Ferrea a Planta Contrachapados (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/02/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Extension Via Ferrea a Planta Contrachapados (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>08/02/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PROAMP (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>24800</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>PROAMP (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>429</v>
+        <v>24800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,12 +5752,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>64655</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mini Central Hidroeléctrica Peuma (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Bruno Hetz Schalchli</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Mini Central Hidroeléctrica Peuma (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Bruno Hetz Schalchli</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>15/09/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6111,17 +6111,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,40 +6232,40 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Collipulli (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Collipulli</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>64655</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1306125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Plan Regulador Comunal de Collipulli (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Ilustre Municipalidad de Collipulli</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>09/03/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1306125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>22/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>22/09/2005</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Collipulli (Terreno Fundo El Fiscal) (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2073</v>
+        <v>200</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>03/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Collipulli (Terreno-Perales) (e-seia)</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Collipulli (Terreno Fundo El Fiscal) (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1618</v>
+        <v>2073</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Collipulli (Terreno-Perales) (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>1618</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>03/08/2005</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7023,17 +7023,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO CALDERA A BIOMASA EN PLANTA PACÍFICO, MININCO, APROBADO POR RCA N°021/12.05.04 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>35000</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>18/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=606155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>MODIFICACIÓN PROYECTO CALDERA A BIOMASA EN PLANTA PACÍFICO, MININCO, APROBADO POR RCA N°021/12.05.04 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>18/02/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=606155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Planta Contrachapados (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>11/01/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Planta Contrachapados (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>11/01/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Planta Química de Clorato de Sodio (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,20 +7298,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Comercial e Industrial ERCO (Chile) Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=498045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Planta Química de Clorato de Sodio (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,20 +7346,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial e Industrial ERCO (Chile) Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=498045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Caldera a Biomasa en Planta Pacífico, Mininco (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,20 +7442,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>24/03/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=294350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>Caldera a Biomasa en Planta Pacífico, Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,20 +7490,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>24/03/2004</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=294350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Regularización y Habilitación Terminal de Buses Tur Bus Collipulli</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,20 +7682,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Rurales Limitada Tur Bus Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>30</v>
+        <v>6000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Regularización y Habilitación Terminal de Buses Tur Bus Collipulli</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa de Transportes Rurales Limitada Tur Bus Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Optimización Planta Pacífico PROPAC</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>73000</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>02/04/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Optimización Planta Pacífico PROPAC</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>110</v>
+        <v>73000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>02/04/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2500</v>
+        <v>110</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Particular Molino de Avena - Collipulli</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,30 +7922,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Compañía Molinera El Globo S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Mininco</t>
+          <t>Sistema de Alcantarillado Particular Molino de Avena - Collipulli</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>Compañía Molinera El Globo S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>710</v>
+        <v>10</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>24/06/1997</t>
+          <t>11/11/1998</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,43 +8008,91 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
+          <t>Instalación Sistema de Alcantarillado Mininco</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>AGUAS ARAUCANÍA S.A.</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>710</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>24/06/1997</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=297&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Collipulli</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F160" t="n">
+      <c r="F161" t="n">
         <v>850000</v>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>Collipulli</t>
         </is>

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1200</v>
+        <v>70000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>70000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>70000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Los Alpes</t>
+          <t>DIA Parque Eólico Los Alpes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156298214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156491716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Solar Collipulli</t>
+          <t>Parque Eólico Los Alpes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GAIA SOLAR SPA</t>
+          <t>Empresa Eléctrica Alpes SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147563992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156298214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico San Andrés</t>
+          <t>Planta Solar Collipulli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Eólico San Andrés SpA.</t>
+          <t>GAIA SOLAR SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147474806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147563992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico San Andrés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico San Andrés SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>135000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147474806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Hydromaq Mininco</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HYDROMAQ SERVICE SPA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3500</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145191954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación Parque Eolico Los Trigales</t>
+          <t>Extracción y Procesamiento de Áridos Hydromaq Mininco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Eólico los Trigales SPA</t>
+          <t>HYDROMAQ SERVICE SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/10/2018</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141641148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145191954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Río Malleco 220 kV</t>
+          <t>Modificación Parque Eolico Los Trigales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,11 +727,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Parque Eólico los Trigales SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8200</v>
+        <v>4000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141612062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141641148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Parque Eólico Los Trigales</t>
+          <t>Subestación Eléctrica Río Malleco 220 kV</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MARIA JOSE SALINERO ECHEVERRIA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4000</v>
+        <v>8200</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/10/2018</t>
+          <t>23/10/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141634133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141612062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión 1x220 S/E Agua Buena- S/E El Salto</t>
+          <t>Modificación Proyecto Parque Eólico Los Trigales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>wpd Malleco Transmisión SpA</t>
+          <t>MARIA JOSE SALINERO ECHEVERRIA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13800</v>
+        <v>4000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/10/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139161779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141634133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aumento de Tensión Línea Subterránea y Obras Complementarias - Parque Eólico Malleco</t>
+          <t>Línea de Alta Tensión 1x220 S/E Agua Buena- S/E El Salto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>wpd Malleco SPA</t>
+          <t>wpd Malleco Transmisión SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>500000</v>
+        <v>13800</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139197996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139161779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Aumento de Tensión Línea Subterránea y Obras Complementarias - Parque Eólico Malleco</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>wpd Malleco SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9903</v>
+        <v>500000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139197996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CMPC Celulosa S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9903</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>CMPC Celulosa S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,40 +1048,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos Malleco Norte</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Consorcio Cosemar y William Ives S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05/01/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131983809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,30 +1096,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Centro de Manejo de Residuos Sólidos Malleco Norte</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Consorcio Cosemar y William Ives S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>05/01/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131983809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZE230 - Niblinto</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>45</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/08/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130661970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto Eólico La Cabaña</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZE230 - Niblinto</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>240000</v>
+        <v>45</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>06/08/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130661970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>La Cabaña SpA.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/03/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Proyecto Eólico La Cabaña</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>La Cabaña SpA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>240000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/03/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Tolpán - Pacífico</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tolpán Transmisión SpA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129729694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Eólico Piñón Blanco</t>
+          <t>Línea de Transmisión Tolpán - Pacífico</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Parque Eólico Piñón Blanco SpA</t>
+          <t>Tolpán Transmisión SpA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>300000</v>
+        <v>17000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129646833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129729694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Tolpán - Tapoff Pacífico</t>
+          <t>Parque Eólico Piñón Blanco</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tolpán Transmisión SpA.</t>
+          <t>Parque Eólico Piñón Blanco SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>9000</v>
+        <v>300000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129655819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129646833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión Tolpán - Tapoff Pacífico</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Tolpán Transmisión SpA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129655819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Parque Eólico Malleco</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,16 +1970,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>wpd Malleco SPA</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>500000</v>
+        <v>70000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,26 +2008,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Parque Eólico Malleco</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>wpd Malleco SPA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>500000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2475</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1650</v>
+        <v>319</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,21 +2939,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Optimización y Ampliación Planta de Contrachapados</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/06/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5691618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Ampliación Planta de Contrachapados</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>95000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>08/06/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5691618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Abandono Ex Vertedero de Collipulli</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Collipulli</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>782</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/12/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5153121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Plan de Cierre y Abandono Ex Vertedero de Collipulli</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Collipulli</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>300</v>
+        <v>782</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>22/12/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5153121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Parque Eólico Collipulli</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ener-Renova S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>108000</v>
+        <v>300</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Parque Eólico Collipulli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ener-Renova S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>108000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>17/06/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Extension Via Ferrea a Planta Contrachapados (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/02/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Extension Via Ferrea a Planta Contrachapados (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>08/02/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PROAMP (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>24800</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>PROAMP (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>429</v>
+        <v>24800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>64655</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,12 +5848,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mini Central Hidroeléctrica Peuma (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Bruno Hetz Schalchli</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Mini Central Hidroeléctrica Peuma (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Bruno Hetz Schalchli</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>15/09/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,17 +6015,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,40 +6280,40 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Collipulli (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Collipulli</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>64655</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1306125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Plan Regulador Comunal de Collipulli (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Ilustre Municipalidad de Collipulli</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>09/03/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1306125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>22/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>22/09/2005</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Collipulli (Terreno Fundo El Fiscal) (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2073</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>03/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Collipulli (Terreno-Perales) (e-seia)</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Collipulli (Terreno Fundo El Fiscal) (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1618</v>
+        <v>2073</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Collipulli (Terreno-Perales) (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>1618</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>03/08/2005</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=957501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7071,17 +7071,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO CALDERA A BIOMASA EN PLANTA PACÍFICO, MININCO, APROBADO POR RCA N°021/12.05.04 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>35000</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>18/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=606155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>MODIFICACIÓN PROYECTO CALDERA A BIOMASA EN PLANTA PACÍFICO, MININCO, APROBADO POR RCA N°021/12.05.04 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>18/02/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=606155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Planta Contrachapados (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>11/01/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Planta Contrachapados (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,20 +7298,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>11/01/2005</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Planta Química de Clorato de Sodio (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,20 +7346,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Comercial e Industrial ERCO (Chile) Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=498045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Planta Química de Clorato de Sodio (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial e Industrial ERCO (Chile) Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=498045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Caldera a Biomasa en Planta Pacífico, Mininco (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,20 +7490,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>24/03/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=294350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>Caldera a Biomasa en Planta Pacífico, Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,20 +7538,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>24/03/2004</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=294350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Regularización y Habilitación Terminal de Buses Tur Bus Collipulli</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Rurales Limitada Tur Bus Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>30</v>
+        <v>6000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Regularización y Habilitación Terminal de Buses Tur Bus Collipulli</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa de Transportes Rurales Limitada Tur Bus Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Optimización Planta Pacífico PROPAC</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>73000</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>02/04/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Optimización Planta Pacífico PROPAC</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>110</v>
+        <v>73000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>02/04/2001</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2500</v>
+        <v>110</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Particular Molino de Avena - Collipulli</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,30 +7970,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Compañía Molinera El Globo S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Mininco</t>
+          <t>Sistema de Alcantarillado Particular Molino de Avena - Collipulli</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>Compañía Molinera El Globo S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>710</v>
+        <v>10</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>24/06/1997</t>
+          <t>11/11/1998</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,43 +8056,91 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>Instalación Sistema de Alcantarillado Mininco</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>AGUAS ARAUCANÍA S.A.</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>710</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>24/06/1997</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=297&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Collipulli</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F161" t="n">
+      <c r="F162" t="n">
         <v>850000</v>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>Collipulli</t>
         </is>

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>70000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>70000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F145" t="n">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Agua Viva S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Hidroeléctrico de Pasada Agua Viva</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Hidroeléctrica Agua Viva S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>70000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Pacífico (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F9" t="n">

--- a/data/Collipulli.xlsx
+++ b/data/Collipulli.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
